--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2415283024114176</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.684991290260029</v>
+        <v>-1.663547640760989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07184857796061207</v>
+        <v>0.07342731913927666</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08912320953656667</v>
+        <v>-0.08934357221354876</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2328027888400161</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.742399702661669</v>
+        <v>-1.711582769295283</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06500789085943928</v>
+        <v>0.07398766994645971</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08515825537001023</v>
+        <v>-0.08461679279228281</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2472093894263965</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.854161356350503</v>
+        <v>-1.823648208674528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06764437288761793</v>
+        <v>0.06741614011502933</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08171744957084694</v>
+        <v>-0.07999547265214398</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2777296710139612</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.962083190392924</v>
+        <v>-1.933670571234325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08579753541357876</v>
+        <v>0.09878476718343074</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08997632790031164</v>
+        <v>-0.0871289273098787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3076080745068001</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.972192328199477</v>
+        <v>-1.929696172953041</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1217197997999031</v>
+        <v>0.1425110183731639</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1188926331777266</v>
+        <v>-0.1203486008649297</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3206712276183126</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.885946311476488</v>
+        <v>-1.86130976418989</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1938256157466876</v>
+        <v>0.2219202830427836</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1289537634010806</v>
+        <v>-0.1338379447344766</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3089503583843728</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.648163177869396</v>
+        <v>-1.628156607828104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2346965962503812</v>
+        <v>0.2720228856929057</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1332791679464149</v>
+        <v>-0.1367483060897616</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2732954581848492</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.300833822486702</v>
+        <v>-1.291818627969452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2967759103944804</v>
+        <v>0.3380230814681649</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1346485645819465</v>
+        <v>-0.1406440034149808</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2176701779754035</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8483261483900126</v>
+        <v>-0.8545805133685009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3094719486268917</v>
+        <v>0.3460364128147067</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1047721076405381</v>
+        <v>-0.1119874112925805</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1439231424262956</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3412070938702357</v>
+        <v>-0.3315441904845708</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2464324828187991</v>
+        <v>0.2847598484224709</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06578522802504137</v>
+        <v>-0.07330431736749475</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0528089858604353</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2382837858278255</v>
+        <v>0.2617445408308122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08366631352333763</v>
+        <v>0.143082387314196</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002607476814594815</v>
+        <v>-0.001931994331236369</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05143724020937961</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8267450004981793</v>
+        <v>0.8749210037438295</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1955709746718896</v>
+        <v>-0.1196701986236491</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1007554391232992</v>
+        <v>0.09978584334457798</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1667738320009228</v>
       </c>
       <c r="E14" t="n">
-        <v>1.442891637493091</v>
+        <v>1.513975915030151</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5027203439451419</v>
+        <v>-0.4264355072313041</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2204894996615212</v>
+        <v>0.219535644074013</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2901104474009143</v>
       </c>
       <c r="E15" t="n">
-        <v>2.090517082894895</v>
+        <v>2.167115149413872</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8258098048598063</v>
+        <v>-0.7376836222964234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3269655971410276</v>
+        <v>0.3304426053799808</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4193532839984646</v>
       </c>
       <c r="E16" t="n">
-        <v>2.63952865632809</v>
+        <v>2.744408698418597</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.134889708585334</v>
+        <v>-1.048774335449413</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4656225155555264</v>
+        <v>0.4644120948512462</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5538659058800679</v>
       </c>
       <c r="E17" t="n">
-        <v>3.253182047034861</v>
+        <v>3.403530779482382</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.489958515987464</v>
+        <v>-1.42141077026438</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5935587897348463</v>
+        <v>0.5976748497370477</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6967495783526507</v>
       </c>
       <c r="E18" t="n">
-        <v>3.74007023378856</v>
+        <v>3.91873557022828</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.829634203392835</v>
+        <v>-1.76067485166953</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7257008430062817</v>
+        <v>0.7306479851045298</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8508945636828649</v>
       </c>
       <c r="E19" t="n">
-        <v>4.164225888462821</v>
+        <v>4.379975115400384</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.188094234991807</v>
+        <v>-2.128159521900481</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8783744016959631</v>
+        <v>0.8934220244955978</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.012255524717744</v>
       </c>
       <c r="E20" t="n">
-        <v>4.514072100420475</v>
+        <v>4.74859150537955</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.544594612784761</v>
+        <v>-2.499565073762591</v>
       </c>
       <c r="G20" t="n">
-        <v>1.035669280525783</v>
+        <v>1.052105188190405</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.173423506796041</v>
       </c>
       <c r="E21" t="n">
-        <v>4.8065217051199</v>
+        <v>5.05254404181744</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.86724177432634</v>
+        <v>-2.840126146923693</v>
       </c>
       <c r="G21" t="n">
-        <v>1.168533808573896</v>
+        <v>1.200991656874237</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.325996223962276</v>
       </c>
       <c r="E22" t="n">
-        <v>5.029258002936918</v>
+        <v>5.286992615916057</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.12830622475659</v>
+        <v>-3.117846080685986</v>
       </c>
       <c r="G22" t="n">
-        <v>1.258397708247195</v>
+        <v>1.297302738868384</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.463768313259003</v>
       </c>
       <c r="E23" t="n">
-        <v>5.192277589310909</v>
+        <v>5.463876162710464</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.29151784146338</v>
+        <v>-3.300479519330505</v>
       </c>
       <c r="G23" t="n">
-        <v>1.346256307559957</v>
+        <v>1.385162912200267</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.58349486308309</v>
       </c>
       <c r="E24" t="n">
-        <v>5.246234964789097</v>
+        <v>5.515137243433863</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.462594831719309</v>
+        <v>-3.476659479577691</v>
       </c>
       <c r="G24" t="n">
-        <v>1.423400558714025</v>
+        <v>1.470706129385595</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.680703291433929</v>
       </c>
       <c r="E25" t="n">
-        <v>5.293535813403303</v>
+        <v>5.558578597162641</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.588360533530355</v>
+        <v>-3.606602628136669</v>
       </c>
       <c r="G25" t="n">
-        <v>1.468426949697952</v>
+        <v>1.519582571140224</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.753391427675724</v>
       </c>
       <c r="E26" t="n">
-        <v>5.275425149393618</v>
+        <v>5.528703714240354</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.66890151794819</v>
+        <v>-3.707121063242052</v>
       </c>
       <c r="G26" t="n">
-        <v>1.509398667425409</v>
+        <v>1.557699018181642</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.799745577684505</v>
       </c>
       <c r="E27" t="n">
-        <v>5.232487481783656</v>
+        <v>5.461955859382477</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.686911444734112</v>
+        <v>-3.743560392909724</v>
       </c>
       <c r="G27" t="n">
-        <v>1.520734753137017</v>
+        <v>1.566376585597373</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.818693121259197</v>
       </c>
       <c r="E28" t="n">
-        <v>5.069785847272168</v>
+        <v>5.286917062998234</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.631698001997127</v>
+        <v>-3.701748935981053</v>
       </c>
       <c r="G28" t="n">
-        <v>1.502784639077704</v>
+        <v>1.551096007967785</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.811816360828062</v>
       </c>
       <c r="E29" t="n">
-        <v>4.949563840806343</v>
+        <v>5.16651404433346</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.577868122067764</v>
+        <v>-3.642316334989421</v>
       </c>
       <c r="G29" t="n">
-        <v>1.451888730790446</v>
+        <v>1.498410439939609</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.779979503416883</v>
       </c>
       <c r="E30" t="n">
-        <v>4.77952255513223</v>
+        <v>4.976539380507194</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.480209679705785</v>
+        <v>-3.548729093084686</v>
       </c>
       <c r="G30" t="n">
-        <v>1.405977741060347</v>
+        <v>1.456442368108369</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.728299377159883</v>
       </c>
       <c r="E31" t="n">
-        <v>4.63149864892687</v>
+        <v>4.816386082953092</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.368259930731955</v>
+        <v>-3.431757436104346</v>
       </c>
       <c r="G31" t="n">
-        <v>1.32835026603604</v>
+        <v>1.37731327884234</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.661034070880371</v>
       </c>
       <c r="E32" t="n">
-        <v>4.462348258075413</v>
+        <v>4.624281771255707</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.238516682601382</v>
+        <v>-3.301077646596599</v>
       </c>
       <c r="G32" t="n">
-        <v>1.246118785081928</v>
+        <v>1.291692934720068</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.583116307734868</v>
       </c>
       <c r="E33" t="n">
-        <v>4.226931662217197</v>
+        <v>4.362273696362237</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.104414975523928</v>
+        <v>-3.148971521800147</v>
       </c>
       <c r="G33" t="n">
-        <v>1.146291344370796</v>
+        <v>1.187190657218673</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.501093552965032</v>
       </c>
       <c r="E34" t="n">
-        <v>3.930888571863842</v>
+        <v>4.06115754238093</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.018230345546669</v>
+        <v>-3.059627835446438</v>
       </c>
       <c r="G34" t="n">
-        <v>1.077535041114139</v>
+        <v>1.108946166698816</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.417233255667204</v>
       </c>
       <c r="E35" t="n">
-        <v>3.65825271986335</v>
+        <v>3.771759960757707</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.895734668460125</v>
+        <v>-2.928800088141288</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9849716986478096</v>
+        <v>1.009782962056872</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.336501532958495</v>
       </c>
       <c r="E36" t="n">
-        <v>3.391317965120209</v>
+        <v>3.501343475718249</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.818536113646372</v>
+        <v>-2.847496491459183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8978481662646953</v>
+        <v>0.9221179670960306</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.259612691709294</v>
       </c>
       <c r="E37" t="n">
-        <v>3.097934967081853</v>
+        <v>3.198933478019233</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.693263079820293</v>
+        <v>-2.719527162878316</v>
       </c>
       <c r="G37" t="n">
-        <v>0.825654205247118</v>
+        <v>0.8458284083248289</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.187294875163135</v>
       </c>
       <c r="E38" t="n">
-        <v>2.812976119380698</v>
+        <v>2.900694630991664</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.605421794717866</v>
+        <v>-2.619365243103907</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7657202791653517</v>
+        <v>0.7817312016672223</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.119770721321158</v>
       </c>
       <c r="E39" t="n">
-        <v>2.524982562813675</v>
+        <v>2.612312291701679</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.49272753469966</v>
+        <v>-2.4955828053857</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7021865713531708</v>
+        <v>0.7169430006153646</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.054008449777204</v>
       </c>
       <c r="E40" t="n">
-        <v>2.297510041460663</v>
+        <v>2.384484042027254</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.401906631400611</v>
+        <v>-2.395040759993497</v>
       </c>
       <c r="G40" t="n">
-        <v>0.650950674935712</v>
+        <v>0.6691463359779479</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9898552233074046</v>
       </c>
       <c r="E41" t="n">
-        <v>2.114442173538666</v>
+        <v>2.19707660338783</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.298758797353095</v>
+        <v>-2.295145636460149</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5752120228569655</v>
+        <v>0.5883676746727967</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9243467457894714</v>
       </c>
       <c r="E42" t="n">
-        <v>1.897018190256038</v>
+        <v>1.976783183247071</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.213941202982686</v>
+        <v>-2.214316606543116</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5115224871517758</v>
+        <v>0.528661981363619</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8567641671184996</v>
       </c>
       <c r="E43" t="n">
-        <v>1.671003210609351</v>
+        <v>1.744791652996805</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.125595444751882</v>
+        <v>-2.124412569382224</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4581742570735316</v>
+        <v>0.4729668887755155</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.787248109258076</v>
       </c>
       <c r="E44" t="n">
-        <v>1.445573766075787</v>
+        <v>1.517962905464406</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.053789479447705</v>
+        <v>-2.060216199519976</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4053029547890415</v>
+        <v>0.4213453576733381</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7151572625467154</v>
       </c>
       <c r="E45" t="n">
-        <v>1.244061542090388</v>
+        <v>1.307533863156838</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.970844180822083</v>
+        <v>-1.980369357534634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3468769390254812</v>
+        <v>0.3539285446889083</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6428525880559871</v>
       </c>
       <c r="E46" t="n">
-        <v>1.063096563714448</v>
+        <v>1.126723138654786</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.895258208598103</v>
+        <v>-1.909375586097049</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2888428540231249</v>
+        <v>0.2976479169876809</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5708345922182911</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9084602031805046</v>
+        <v>0.9593608335251261</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.830686435175424</v>
+        <v>-1.83784586114866</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2549857027239471</v>
+        <v>0.2713665197193234</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5011200708741796</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7454658011124544</v>
+        <v>0.793445051967942</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.776153755708401</v>
+        <v>-1.785737958138001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1978818630222794</v>
+        <v>0.2121487723377489</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4349536439040431</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6339308061770876</v>
+        <v>0.6788816442431928</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.736502640023716</v>
+        <v>-1.746500809482218</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1510311838767645</v>
+        <v>0.1668311878163808</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3721256663578328</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5469898600120442</v>
+        <v>0.5935934181555149</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.671368154765172</v>
+        <v>-1.677034623601854</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1138040576388819</v>
+        <v>0.1324593322645377</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3138195599729654</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4214382248014948</v>
+        <v>0.470059675458473</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.610638562017588</v>
+        <v>-1.61248016438951</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07357055487931502</v>
+        <v>0.09311672432762697</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2596532288534261</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2985419598485797</v>
+        <v>0.3351929950880663</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.573559393577108</v>
+        <v>-1.573619993313278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03857696177455813</v>
+        <v>0.05315710089516641</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2097866091346971</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2046186648614464</v>
+        <v>0.2383908191280739</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.552244026636454</v>
+        <v>-1.55619638865004</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.009830422281923219</v>
+        <v>0.0008256871692824363</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1638375060687633</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1107756448494994</v>
+        <v>0.1453930473842654</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.523592156571417</v>
+        <v>-1.519996309888806</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02887605364966154</v>
+        <v>-0.01816485352921036</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1210326841494794</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02593601421139231</v>
+        <v>0.0602354648836556</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.52430912228117</v>
+        <v>-1.519153422649349</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.05648749707551821</v>
+        <v>-0.04313037081216057</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08134590607916795</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.05815280930585433</v>
+        <v>-0.03543971338548541</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.514236186914406</v>
+        <v>-1.51024762246103</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.089203484511753</v>
+        <v>-0.08289324185445855</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.04399304461204139</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1370757020669921</v>
+        <v>-0.1068482388615337</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.518430160863112</v>
+        <v>-1.513271313193049</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1127067380310149</v>
+        <v>-0.1000469022383934</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.008947113817849357</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2381119894632833</v>
+        <v>-0.2149613162271928</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.539839181941483</v>
+        <v>-1.539315820583651</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1559623575034791</v>
+        <v>-0.1494773987237202</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.02410630389468739</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3153034611909903</v>
+        <v>-0.2937173629614727</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.551816680445021</v>
+        <v>-1.549890868050109</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1867533195543631</v>
+        <v>-0.1804194666102492</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.05528081638677865</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4105536542973801</v>
+        <v>-0.3914686724516093</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.558866712089326</v>
+        <v>-1.553393060595003</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2155169449770119</v>
+        <v>-0.2137697837523681</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08414972171828825</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5007638381773651</v>
+        <v>-0.4870210772292888</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.599045911189209</v>
+        <v>-1.600967001526756</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2490954948917195</v>
+        <v>-0.2395065704047557</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1107197039833426</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5768188680994931</v>
+        <v>-0.571646641266899</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.625296615084701</v>
+        <v>-1.62515023130642</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2669291315360562</v>
+        <v>-0.2580674038831334</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1350419848606649</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6577769675844727</v>
+        <v>-0.6572024506051979</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.675330747903046</v>
+        <v>-1.675656569861156</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3028592660179871</v>
+        <v>-0.2949435238569659</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1574016472280526</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7467704346836922</v>
+        <v>-0.7534867742742822</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.710096895244775</v>
+        <v>-1.719734614324499</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3407285920573603</v>
+        <v>-0.3396362227871776</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1779184230553319</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8357717718785184</v>
+        <v>-0.8461445578878899</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.771750437216563</v>
+        <v>-1.788438974950153</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3673310892264632</v>
+        <v>-0.3648583051868999</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1966810671586997</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9119070767758326</v>
+        <v>-0.923828697600564</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.814354412772808</v>
+        <v>-1.834278346810232</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.393843867305652</v>
+        <v>-0.3947300400709443</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2137087243960277</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9907599256860725</v>
+        <v>-1.002722471007958</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.836403272623988</v>
+        <v>-1.856375214244612</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4246600136624769</v>
+        <v>-0.4290483789726632</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2293461959592509</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.030835239523949</v>
+        <v>-1.043683957611126</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.860601455585305</v>
+        <v>-1.877966034531494</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4433530647470438</v>
+        <v>-0.4468835896361213</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2433530418139676</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.051102309729816</v>
+        <v>-1.057704532934112</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.93022819141604</v>
+        <v>-1.955817020271026</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.470171202535765</v>
+        <v>-0.4804936199332549</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2557202849005386</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.03364407664591</v>
+        <v>-1.038325996522219</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.946662525061541</v>
+        <v>-1.976485465352825</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4895583960528255</v>
+        <v>-0.5016547330000213</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2660993696807906</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.030329979386011</v>
+        <v>-1.036278984654967</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.959813454820008</v>
+        <v>-1.994114479511393</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4981541144742486</v>
+        <v>-0.5077855374774876</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2742411869468755</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.0427324630523</v>
+        <v>-1.047286100370223</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.001326635125193</v>
+        <v>-2.032777898197462</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4944614656156772</v>
+        <v>-0.5073715704485854</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2804998421748477</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9761640463742512</v>
+        <v>-0.9721314093854788</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.997929901861426</v>
+        <v>-2.01990006075654</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5090872512908031</v>
+        <v>-0.5216998665097856</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2848925426095402</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8794075169687766</v>
+        <v>-0.8683067471158036</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.022971759071759</v>
+        <v>-2.047419424063801</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5075462865710498</v>
+        <v>-0.5213882107237681</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2872549249079648</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7887007300560213</v>
+        <v>-0.7703759994458387</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.026484969750502</v>
+        <v>-2.045994149749463</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5051238711433681</v>
+        <v>-0.5185659944392759</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.287728407950276</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6535349860525673</v>
+        <v>-0.6254371707182287</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.013190804251996</v>
+        <v>-2.022516080536142</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4899550488713933</v>
+        <v>-0.5040078915863658</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2858259767725335</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5309865793254597</v>
+        <v>-0.4922483947311284</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.992609717231429</v>
+        <v>-1.99991946203075</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4572532276072502</v>
+        <v>-0.4609915230203394</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2815110914924067</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3788261508693221</v>
+        <v>-0.3381739590234893</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.005672501919104</v>
+        <v>-2.00681760082985</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4308207245032478</v>
+        <v>-0.4321995652535072</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2739925367461296</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1886720488632287</v>
+        <v>-0.1434158510875913</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.978366418202779</v>
+        <v>-1.971615450191521</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3955438079566568</v>
+        <v>-0.3966172889973839</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2630531010856155</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.02074781890726479</v>
+        <v>0.02819158361221619</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.919136078668234</v>
+        <v>-1.905728583792995</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3705247740235823</v>
+        <v>-0.3691963018852045</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2488177356535532</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1917683727551476</v>
+        <v>0.2385859974991152</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.893495307182246</v>
+        <v>-1.87320541369912</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3262586342752431</v>
+        <v>-0.3207322531403564</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2317237560325734</v>
       </c>
       <c r="E82" t="n">
-        <v>0.394077050415925</v>
+        <v>0.4505292462013741</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.864015503059406</v>
+        <v>-1.843703573308581</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2864894671564599</v>
+        <v>-0.2791057434584384</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2123451128008059</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5928205747669563</v>
+        <v>0.6521453554487793</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.813188064603924</v>
+        <v>-1.7908920837507</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.247428608642262</v>
+        <v>-0.2409971665126274</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1902467037936133</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7927162811147798</v>
+        <v>0.8547656888955741</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.738864455715227</v>
+        <v>-1.721222062394129</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1990479829108428</v>
+        <v>-0.1899029318160858</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1643615547916067</v>
       </c>
       <c r="E85" t="n">
-        <v>1.005304877656772</v>
+        <v>1.080788538637868</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.656649501961889</v>
+        <v>-1.644189566597673</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1656158167744162</v>
+        <v>-0.1569351013204429</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1341200530527411</v>
       </c>
       <c r="E86" t="n">
-        <v>1.217067114160081</v>
+        <v>1.29341333761965</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.569317412045202</v>
+        <v>-1.561396160817257</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1215055049190857</v>
+        <v>-0.113325327545686</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09971409036126488</v>
       </c>
       <c r="E87" t="n">
-        <v>1.39119297945397</v>
+        <v>1.473684173563096</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.45458086221711</v>
+        <v>-1.451438333041433</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.08403125767915895</v>
+        <v>-0.07399373774262445</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06307990212545393</v>
       </c>
       <c r="E88" t="n">
-        <v>1.537057331424905</v>
+        <v>1.618508098894851</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.326949947747323</v>
+        <v>-1.325318476928094</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05137193493129097</v>
+        <v>-0.04006103352562423</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02754268868906986</v>
       </c>
       <c r="E89" t="n">
-        <v>1.649845245580827</v>
+        <v>1.727992146915163</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.165898672284518</v>
+        <v>-1.162830122007542</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02936242555814346</v>
+        <v>-0.01507820203233971</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.002704417567675865</v>
       </c>
       <c r="E90" t="n">
-        <v>1.7359755718984</v>
+        <v>1.815864912400017</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.010129017983238</v>
+        <v>-1.010938850821147</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0001425628706379378</v>
+        <v>0.008609211724114338</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02341408197778212</v>
       </c>
       <c r="E91" t="n">
-        <v>1.805325280363787</v>
+        <v>1.880281644939247</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8306302384187896</v>
+        <v>-0.8297385565865728</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.004636159181630951</v>
+        <v>-0.0004351021468794146</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03174579791059555</v>
       </c>
       <c r="E92" t="n">
-        <v>1.858575921256511</v>
+        <v>1.928202657087247</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6158529682886288</v>
+        <v>-0.6139279429032781</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.002582064228333553</v>
+        <v>0.006594467248849457</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.026670137550632</v>
       </c>
       <c r="E93" t="n">
-        <v>1.85545306731985</v>
+        <v>1.929570479703657</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4537085365460811</v>
+        <v>-0.4594631504535564</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01782486539900941</v>
+        <v>-0.006517112031585272</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01076418891309059</v>
       </c>
       <c r="E94" t="n">
-        <v>1.84267360607401</v>
+        <v>1.916605284201503</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2683866732423807</v>
+        <v>-0.276135569376544</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04681042751776158</v>
+        <v>-0.03737418288556395</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01067915390677127</v>
       </c>
       <c r="E95" t="n">
-        <v>1.781031869245633</v>
+        <v>1.84519046264897</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1131569074997069</v>
+        <v>-0.1121149068414058</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0489259092167897</v>
+        <v>-0.04314138894600968</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03203953564658388</v>
       </c>
       <c r="E96" t="n">
-        <v>1.709421869322058</v>
+        <v>1.769914572191886</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01142040987475737</v>
+        <v>0.006243460984799404</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07255980632311954</v>
+        <v>-0.06817458905117582</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04881350096111586</v>
       </c>
       <c r="E97" t="n">
-        <v>1.575019524592435</v>
+        <v>1.619057431568185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08637362641197482</v>
+        <v>0.08187193172505484</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1016980482966379</v>
+        <v>-0.0978967921186967</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06018821731100366</v>
       </c>
       <c r="E98" t="n">
-        <v>1.445660337127459</v>
+        <v>1.478732052885108</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1321618426506118</v>
+        <v>0.1221526550582608</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1124848013349115</v>
+        <v>-0.1098451712684902</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06648613773759357</v>
       </c>
       <c r="E99" t="n">
-        <v>1.311955282868572</v>
+        <v>1.341941921148471</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1518606919536899</v>
+        <v>0.1402853553356447</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1356071422268186</v>
+        <v>-0.1312943298344547</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07172250637229759</v>
       </c>
       <c r="E100" t="n">
-        <v>1.165173277749919</v>
+        <v>1.192033914054915</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1692111047277874</v>
+        <v>0.1582779679112328</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1332303733536545</v>
+        <v>-0.1281872160890071</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07758973979267685</v>
       </c>
       <c r="E101" t="n">
-        <v>1.032050610565913</v>
+        <v>1.057055478326896</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1646275610465598</v>
+        <v>0.1486969135198755</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1562834574042244</v>
+        <v>-0.1561103153008813</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09220873406424684</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9042780343752086</v>
+        <v>0.9187479921573258</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1563072959713644</v>
+        <v>0.1418672445525519</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.150439124406835</v>
+        <v>-0.1425123641119647</v>
       </c>
     </row>
   </sheetData>
